--- a/InputData/indst/BPoIFUfE/BAU Proportion of Industrial Fuel Used for Energy.xlsx
+++ b/InputData/indst/BPoIFUfE/BAU Proportion of Industrial Fuel Used for Energy.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-1.4.2-us - AEO Update\InputData\indst\BPoIFUfE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BPoIFUfE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,15 +37,6 @@
     <t>Environmental Protection Agency</t>
   </si>
   <si>
-    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2013</t>
-  </si>
-  <si>
-    <t>Annex 2, Table A-10, page A-33</t>
-  </si>
-  <si>
-    <t>http://www.epa.gov/climatechange/Downloads/ghgemissions/US-GHG-Inventory-2015-Annex-2-Emissions-Fossil-Fuel-Combustion.pdf</t>
-  </si>
-  <si>
     <t>Proportion of Fuel Used for Energy</t>
   </si>
   <si>
@@ -120,12 +116,21 @@
   </si>
   <si>
     <t>BPoIFUfE BAU Proportion of Industrial Fuel Used for Energy</t>
+  </si>
+  <si>
+    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2016</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/production/files/2018-01/documents/2018_annex_2.pdf</t>
+  </si>
+  <si>
+    <t>Annex 2, Table A-10, page A-36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -479,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,16 +494,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.26953125" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,85 +523,82 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -602,89 +606,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>930.9</v>
+        <f>88.8+630.6</f>
+        <v>719.4</v>
       </c>
       <c r="C2">
-        <v>129.9</v>
+        <f>88.8+10.3</f>
+        <v>99.1</v>
       </c>
       <c r="D2">
         <f>B2-C2</f>
-        <v>801</v>
+        <v>620.29999999999995</v>
       </c>
       <c r="E2" s="5">
         <f>D2/B2</f>
-        <v>0.86045762165646156</v>
+        <v>0.86224631637475668</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>8817</v>
+        <f>9328.2</f>
+        <v>9328.2000000000007</v>
       </c>
       <c r="C3">
         <v>311.8</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D4" si="0">B3-C3</f>
-        <v>8505.2000000000007</v>
+        <v>9016.4000000000015</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:E4" si="1">D3/B3</f>
-        <v>0.96463649767494619</v>
+        <v>0.96657447310306388</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>8294.6</v>
+        <v>8150.8</v>
       </c>
       <c r="C4">
-        <v>4381.8</v>
+        <v>4485.6000000000004</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>3912.8</v>
+        <v>3665.2</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>0.47172859450726978</v>
+        <v>0.44967365166609408</v>
       </c>
     </row>
   </sheetData>
@@ -701,20 +710,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -722,25 +731,25 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6">
         <f>Data!E2</f>
-        <v>0.86045762165646156</v>
+        <v>0.86224631637475668</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6">
         <f>Data!E3</f>
-        <v>0.96463649767494619</v>
+        <v>0.96657447310306388</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -748,16 +757,16 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6">
         <f>Data!E4</f>
-        <v>0.47172859450726978</v>
+        <v>0.44967365166609408</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1</v>

--- a/InputData/indst/BPoIFUfE/BAU Proportion of Industrial Fuel Used for Energy.xlsx
+++ b/InputData/indst/BPoIFUfE/BAU Proportion of Industrial Fuel Used for Energy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\BPoIFUfE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\indst\BPoIFUfE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00DD904-5C3E-4268-A14A-90D6279DE085}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1680" windowWidth="24615" windowHeight="14610" xr2:uid="{6A456DDF-EFD3-47FE-A446-B351569C8872}"/>
+    <workbookView xWindow="2715" yWindow="1680" windowWidth="24615" windowHeight="14610"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
   <definedNames>
     <definedName name="gal_per_barrel">[1]About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1700,7 +1699,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2251,31 +2250,31 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Body: normal cell" xfId="2"/>
+    <cellStyle name="Body: normal cell 2" xfId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Header: bottom row" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Header: top rows" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="8"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="19"/>
+    <cellStyle name="Footnotes: all except top row" xfId="11"/>
+    <cellStyle name="Footnotes: top row" xfId="6"/>
+    <cellStyle name="Footnotes: top row 2" xfId="24"/>
+    <cellStyle name="Header: bottom row" xfId="1"/>
+    <cellStyle name="Header: bottom row 2" xfId="20"/>
+    <cellStyle name="Header: top rows" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 5" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 58" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 6" xfId="16" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Parent row 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Section Break" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Table title" xfId="12" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Table title 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 2" xfId="18"/>
+    <cellStyle name="Normal 3" xfId="13"/>
+    <cellStyle name="Normal 4" xfId="14"/>
+    <cellStyle name="Normal 5" xfId="15"/>
+    <cellStyle name="Normal 58" xfId="17"/>
+    <cellStyle name="Normal 6" xfId="16"/>
+    <cellStyle name="Parent row" xfId="5"/>
+    <cellStyle name="Parent row 2" xfId="22"/>
+    <cellStyle name="Section Break" xfId="7"/>
+    <cellStyle name="Section Break: parent row" xfId="4"/>
+    <cellStyle name="Table title" xfId="12"/>
+    <cellStyle name="Table title 2" xfId="21"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2304,7 +2303,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2427,23 +2426,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2479,23 +2461,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2671,27 +2636,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="41.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.42578125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="41.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.3984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="57.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.3984375" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -2699,27 +2664,27 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>63</v>
       </c>
@@ -2728,7 +2693,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>66</v>
       </c>
@@ -2737,7 +2702,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <v>2012</v>
       </c>
@@ -2746,7 +2711,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
@@ -2755,7 +2720,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>60</v>
       </c>
@@ -2764,7 +2729,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>68</v>
       </c>
@@ -2773,11 +2738,11 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2788,7 +2753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2796,7 +2761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
@@ -2807,7 +2772,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2815,7 +2780,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
@@ -2823,7 +2788,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
@@ -2831,7 +2796,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
@@ -2842,7 +2807,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
         <v>50</v>
       </c>
@@ -2850,7 +2815,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>9</v>
       </c>
@@ -2861,7 +2826,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
@@ -2869,140 +2834,140 @@
         <v>462</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="21"/>
       <c r="B30" s="6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="21"/>
       <c r="B31" s="6" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="21"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="21"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D74" s="14"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="76"/>
       <c r="D75" s="54"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="77"/>
       <c r="D76" s="54"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="77"/>
       <c r="D77" s="54"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="77"/>
       <c r="D78" s="54"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="77"/>
       <c r="D79" s="54"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="77"/>
       <c r="D80" s="54"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="77"/>
       <c r="D81" s="54"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="77"/>
       <c r="D82" s="54"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="77"/>
       <c r="D83" s="54"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="77"/>
       <c r="D84" s="54"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D85" s="54"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D86" s="54"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D87" s="54"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D88" s="54"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D89" s="54"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D90" s="54"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D91" s="54"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D92" s="54"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D93" s="54"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D94" s="53"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D95" s="54"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D96" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -3015,25 +2980,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AI21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="35" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3041,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -3116,7 +3083,7 @@
       <c r="AH3" s="24"/>
       <c r="AI3" s="24"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -3157,7 +3124,7 @@
       <c r="AH4" s="24"/>
       <c r="AI4" s="24"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -3199,7 +3166,7 @@
       <c r="AH5" s="24"/>
       <c r="AI5" s="24"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -3241,7 +3208,7 @@
       <c r="AH6" s="24"/>
       <c r="AI6" s="24"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -3283,7 +3250,7 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -3324,7 +3291,7 @@
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -3366,7 +3333,7 @@
       <c r="AH9" s="24"/>
       <c r="AI9" s="24"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
@@ -3408,12 +3375,12 @@
       <c r="AH10" s="24"/>
       <c r="AI10" s="24"/>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3421,7 +3388,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -3429,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -3437,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -3445,15 +3412,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <f>INDEX(Data!$C$51:$AJ$51,MATCH(B$2,Data!$C$1:$AJ$1,0))*10^12</f>
+        <v>38500000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -3461,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -3469,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -3477,13 +3445,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="24">
-        <v>0</v>
-      </c>
+        <f>SUM(INDEX(Data!$C$103:$AJ$103,MATCH(B$2,Data!$C$1:$AJ$1,0)),INDEX(Data!$C$104:$AJ$104,MATCH(B$2,Data!$C$1:$AJ$1,0)))*10^15-B17</f>
+        <v>931500000000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3491,23 +3463,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3548,7 +3520,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -3556,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -3564,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -3572,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -3580,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -3588,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -3596,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -3604,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
@@ -3612,12 +3584,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3625,7 +3597,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -3633,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -3641,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -3649,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -3657,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -3665,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -3673,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -3681,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -3695,24 +3667,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +3725,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -3761,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -3770,7 +3742,7 @@
         <v>3.7401190806655304E+16</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -3778,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -3786,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -3794,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -3802,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -3810,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
@@ -3818,12 +3790,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3831,7 +3803,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -3839,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -3848,7 +3820,7 @@
         <v>3.5357390806655304E+16</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -3856,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -3864,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -3872,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -3880,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -3888,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -3902,24 +3874,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3960,7 +3932,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -3969,7 +3941,7 @@
         <v>5700000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -3977,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -3986,7 +3958,7 @@
         <v>21600000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -3995,7 +3967,7 @@
         <v>161400000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -4004,7 +3976,7 @@
         <v>48500000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -4012,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -4054,7 +4026,7 @@
       <c r="AH9" s="31"/>
       <c r="AI9" s="31"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
@@ -4063,12 +4035,12 @@
         <v>160750865000000</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -4076,7 +4048,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -4084,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -4092,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -4100,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -4108,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -4116,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -4124,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -4132,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -4146,24 +4118,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4204,7 +4176,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -4213,7 +4185,7 @@
         <v>400000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -4221,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -4230,7 +4202,7 @@
         <v>200000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -4239,7 +4211,7 @@
         <v>3582300000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -4247,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -4255,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -4297,7 +4269,7 @@
       <c r="AH9" s="32"/>
       <c r="AI9" s="32"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
@@ -4306,12 +4278,12 @@
         <v>91600000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -4319,7 +4291,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -4327,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -4335,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -4343,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -4352,7 +4324,7 @@
         <v>3571300000000000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -4360,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -4368,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -4376,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -4391,23 +4363,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4448,7 +4420,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -4456,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -4464,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -4472,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -4480,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -4488,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -4496,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -4504,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
@@ -4512,12 +4484,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -4525,7 +4497,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -4533,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -4541,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -4549,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -4557,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -4565,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -4573,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -4581,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -4595,29 +4567,31 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="95" t="s">
         <v>465</v>
       </c>
@@ -4652,7 +4626,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="89" t="s">
         <v>313</v>
       </c>
@@ -4697,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="89" t="s">
         <v>5</v>
       </c>
@@ -4742,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="89" t="s">
         <v>6</v>
       </c>
@@ -4787,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="89" t="s">
         <v>7</v>
       </c>
@@ -4809,7 +4783,7 @@
       </c>
       <c r="F5" s="90">
         <f>IFERROR(1-('Petroleum Diesel'!B17/'Petroleum Diesel'!B6),1)</f>
-        <v>1</v>
+        <v>0.54970760233918137</v>
       </c>
       <c r="G5" s="90">
         <f>IFERROR(1-(Heat!B17/Heat!B6),1)</f>
@@ -4832,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="89" t="s">
         <v>11</v>
       </c>
@@ -4877,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="89" t="s">
         <v>8</v>
       </c>
@@ -4922,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>50</v>
       </c>
@@ -4967,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="89" t="s">
         <v>9</v>
       </c>
@@ -4989,7 +4963,7 @@
       </c>
       <c r="F9" s="90">
         <f>IFERROR(1-('Petroleum Diesel'!B21/'Petroleum Diesel'!B10),1)</f>
-        <v>1</v>
+        <v>0.5670362007967289</v>
       </c>
       <c r="G9" s="90">
         <f>IFERROR(1-(Heat!B21/Heat!B10),1)</f>
@@ -5018,30 +4992,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8" style="6" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" style="6" customWidth="1"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="47" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="47" t="s">
         <v>120</v>
       </c>
@@ -5151,7 +5125,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="48" t="s">
         <v>250</v>
       </c>
@@ -5257,8 +5231,8 @@
       <c r="AJ4" s="48"/>
       <c r="AK4" s="48"/>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>474</v>
       </c>
@@ -5367,12 +5341,12 @@
       <c r="AJ6" s="59"/>
       <c r="AK6" s="60"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B7" s="53" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>476</v>
       </c>
@@ -5481,12 +5455,12 @@
       <c r="AJ8" s="63"/>
       <c r="AK8" s="60"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="53" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>477</v>
       </c>
@@ -5595,7 +5569,7 @@
       <c r="AJ11" s="64"/>
       <c r="AK11" s="56"/>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>478</v>
       </c>
@@ -5704,7 +5678,7 @@
       <c r="AJ12" s="64"/>
       <c r="AK12" s="56"/>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>479</v>
       </c>
@@ -5813,7 +5787,7 @@
       <c r="AJ13" s="64"/>
       <c r="AK13" s="56"/>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>480</v>
       </c>
@@ -5922,7 +5896,7 @@
       <c r="AJ14" s="64"/>
       <c r="AK14" s="56"/>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>481</v>
       </c>
@@ -6031,7 +6005,7 @@
       <c r="AJ15" s="64"/>
       <c r="AK15" s="56"/>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>482</v>
       </c>
@@ -6140,7 +6114,7 @@
       <c r="AJ16" s="64"/>
       <c r="AK16" s="56"/>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>483</v>
       </c>
@@ -6249,7 +6223,7 @@
       <c r="AJ17" s="64"/>
       <c r="AK17" s="56"/>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>484</v>
       </c>
@@ -6358,7 +6332,7 @@
       <c r="AJ18" s="64"/>
       <c r="AK18" s="56"/>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>485</v>
       </c>
@@ -6467,7 +6441,7 @@
       <c r="AJ19" s="64"/>
       <c r="AK19" s="56"/>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>486</v>
       </c>
@@ -6576,7 +6550,7 @@
       <c r="AJ20" s="64"/>
       <c r="AK20" s="56"/>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>487</v>
       </c>
@@ -6685,7 +6659,7 @@
       <c r="AJ21" s="64"/>
       <c r="AK21" s="56"/>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>488</v>
       </c>
@@ -6794,7 +6768,7 @@
       <c r="AJ22" s="64"/>
       <c r="AK22" s="56"/>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>489</v>
       </c>
@@ -6903,7 +6877,7 @@
       <c r="AJ23" s="64"/>
       <c r="AK23" s="56"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>490</v>
       </c>
@@ -7012,7 +6986,7 @@
       <c r="AJ24" s="64"/>
       <c r="AK24" s="56"/>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>491</v>
       </c>
@@ -7121,13 +7095,13 @@
       <c r="AJ25" s="63"/>
       <c r="AK25" s="60"/>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="53" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>492</v>
       </c>
@@ -7236,18 +7210,18 @@
       <c r="AJ28" s="59"/>
       <c r="AK28" s="60"/>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="53" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="53" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>493</v>
       </c>
@@ -7356,7 +7330,7 @@
       <c r="AJ32" s="64"/>
       <c r="AK32" s="56"/>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>494</v>
       </c>
@@ -7465,7 +7439,7 @@
       <c r="AJ33" s="64"/>
       <c r="AK33" s="56"/>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>495</v>
       </c>
@@ -7574,7 +7548,7 @@
       <c r="AJ34" s="64"/>
       <c r="AK34" s="56"/>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>496</v>
       </c>
@@ -7683,7 +7657,7 @@
       <c r="AJ35" s="64"/>
       <c r="AK35" s="56"/>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>497</v>
       </c>
@@ -7792,7 +7766,7 @@
       <c r="AJ36" s="64"/>
       <c r="AK36" s="56"/>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>498</v>
       </c>
@@ -7901,7 +7875,7 @@
       <c r="AJ37" s="64"/>
       <c r="AK37" s="56"/>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
         <v>499</v>
       </c>
@@ -8010,7 +7984,7 @@
       <c r="AJ38" s="64"/>
       <c r="AK38" s="56"/>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="s">
         <v>500</v>
       </c>
@@ -8119,7 +8093,7 @@
       <c r="AJ39" s="64"/>
       <c r="AK39" s="56"/>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
         <v>501</v>
       </c>
@@ -8228,7 +8202,7 @@
       <c r="AJ40" s="64"/>
       <c r="AK40" s="56"/>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
         <v>502</v>
       </c>
@@ -8337,7 +8311,7 @@
       <c r="AJ41" s="64"/>
       <c r="AK41" s="56"/>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>503</v>
       </c>
@@ -8446,13 +8420,13 @@
       <c r="AJ42" s="63"/>
       <c r="AK42" s="60"/>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="53" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="6" t="s">
         <v>504</v>
       </c>
@@ -8561,19 +8535,19 @@
       <c r="AJ45" s="59"/>
       <c r="AK45" s="60"/>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="53" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B49" s="53" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
         <v>505</v>
       </c>
@@ -8682,7 +8656,7 @@
       <c r="AJ50" s="64"/>
       <c r="AK50" s="56"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
         <v>506</v>
       </c>
@@ -8791,7 +8765,7 @@
       <c r="AJ51" s="64"/>
       <c r="AK51" s="56"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A52" s="6" t="s">
         <v>507</v>
       </c>
@@ -8900,7 +8874,7 @@
       <c r="AJ52" s="64"/>
       <c r="AK52" s="56"/>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="6" t="s">
         <v>508</v>
       </c>
@@ -9009,7 +8983,7 @@
       <c r="AJ53" s="64"/>
       <c r="AK53" s="56"/>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="6" t="s">
         <v>509</v>
       </c>
@@ -9118,7 +9092,7 @@
       <c r="AJ54" s="64"/>
       <c r="AK54" s="56"/>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
         <v>510</v>
       </c>
@@ -9227,7 +9201,7 @@
       <c r="AJ55" s="64"/>
       <c r="AK55" s="56"/>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
         <v>511</v>
       </c>
@@ -9336,7 +9310,7 @@
       <c r="AJ56" s="64"/>
       <c r="AK56" s="56"/>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="6" t="s">
         <v>512</v>
       </c>
@@ -9445,7 +9419,7 @@
       <c r="AJ57" s="64"/>
       <c r="AK57" s="56"/>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="6" t="s">
         <v>513</v>
       </c>
@@ -9554,7 +9528,7 @@
       <c r="AJ58" s="64"/>
       <c r="AK58" s="56"/>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="6" t="s">
         <v>514</v>
       </c>
@@ -9663,7 +9637,7 @@
       <c r="AJ59" s="64"/>
       <c r="AK59" s="56"/>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="6" t="s">
         <v>515</v>
       </c>
@@ -9772,18 +9746,18 @@
       <c r="AJ60" s="63"/>
       <c r="AK60" s="60"/>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="53" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="53" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="6" t="s">
         <v>516</v>
       </c>
@@ -9892,7 +9866,7 @@
       <c r="AJ64" s="58"/>
       <c r="AK64" s="56"/>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="6" t="s">
         <v>517</v>
       </c>
@@ -10001,7 +9975,7 @@
       <c r="AJ65" s="58"/>
       <c r="AK65" s="56"/>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="6" t="s">
         <v>518</v>
       </c>
@@ -10110,7 +10084,7 @@
       <c r="AJ66" s="58"/>
       <c r="AK66" s="56"/>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="6" t="s">
         <v>519</v>
       </c>
@@ -10219,7 +10193,7 @@
       <c r="AJ67" s="58"/>
       <c r="AK67" s="56"/>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="6" t="s">
         <v>520</v>
       </c>
@@ -10328,12 +10302,12 @@
       <c r="AJ68" s="65"/>
       <c r="AK68" s="60"/>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="53" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A70" s="6" t="s">
         <v>521</v>
       </c>
@@ -10442,7 +10416,7 @@
       <c r="AJ70" s="58"/>
       <c r="AK70" s="56"/>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="6" t="s">
         <v>522</v>
       </c>
@@ -10551,7 +10525,7 @@
       <c r="AJ71" s="58"/>
       <c r="AK71" s="56"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A72" s="6" t="s">
         <v>523</v>
       </c>
@@ -10660,7 +10634,7 @@
       <c r="AJ72" s="58"/>
       <c r="AK72" s="56"/>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="6" t="s">
         <v>524</v>
       </c>
@@ -10769,7 +10743,7 @@
       <c r="AJ73" s="58"/>
       <c r="AK73" s="56"/>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="6" t="s">
         <v>525</v>
       </c>
@@ -10878,12 +10852,12 @@
       <c r="AJ74" s="65"/>
       <c r="AK74" s="60"/>
     </row>
-    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="53" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="6" t="s">
         <v>526</v>
       </c>
@@ -10992,7 +10966,7 @@
       <c r="AJ76" s="58"/>
       <c r="AK76" s="56"/>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="6" t="s">
         <v>527</v>
       </c>
@@ -11101,18 +11075,18 @@
       <c r="AJ77" s="58"/>
       <c r="AK77" s="56"/>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="53" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="53" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A81" s="6" t="s">
         <v>528</v>
       </c>
@@ -11221,7 +11195,7 @@
       <c r="AJ81" s="64"/>
       <c r="AK81" s="56"/>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="6" t="s">
         <v>529</v>
       </c>
@@ -11330,7 +11304,7 @@
       <c r="AJ82" s="64"/>
       <c r="AK82" s="56"/>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="6" t="s">
         <v>530</v>
       </c>
@@ -11439,7 +11413,7 @@
       <c r="AJ83" s="64"/>
       <c r="AK83" s="56"/>
     </row>
-    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="6" t="s">
         <v>531</v>
       </c>
@@ -11548,18 +11522,18 @@
       <c r="AJ84" s="63"/>
       <c r="AK84" s="60"/>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" spans="1:37" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B87" s="51" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B88" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B89" s="47" t="s">
         <v>120</v>
       </c>
@@ -11663,7 +11637,7 @@
       <c r="AJ89" s="44"/>
       <c r="AK89" s="44"/>
     </row>
-    <row r="90" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B90" s="48" t="s">
         <v>122</v>
       </c>
@@ -11765,13 +11739,13 @@
       </c>
       <c r="AI90" s="48"/>
     </row>
-    <row r="91" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="92" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B92" s="53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B93" s="54" t="s">
         <v>124</v>
       </c>
@@ -11875,7 +11849,7 @@
       <c r="AJ93" s="58"/>
       <c r="AK93" s="56"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B94" s="54" t="s">
         <v>125</v>
       </c>
@@ -11979,7 +11953,7 @@
       <c r="AJ94" s="58"/>
       <c r="AK94" s="56"/>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B95" s="54" t="s">
         <v>126</v>
       </c>
@@ -12083,7 +12057,7 @@
       <c r="AJ95" s="58"/>
       <c r="AK95" s="56"/>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B96" s="54" t="s">
         <v>127</v>
       </c>
@@ -12187,7 +12161,7 @@
       <c r="AJ96" s="58"/>
       <c r="AK96" s="56"/>
     </row>
-    <row r="97" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B97" s="54" t="s">
         <v>128</v>
       </c>
@@ -12291,7 +12265,7 @@
       <c r="AJ97" s="58"/>
       <c r="AK97" s="56"/>
     </row>
-    <row r="98" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B98" s="54" t="s">
         <v>129</v>
       </c>
@@ -12395,7 +12369,7 @@
       <c r="AJ98" s="58"/>
       <c r="AK98" s="56"/>
     </row>
-    <row r="99" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B99" s="54" t="s">
         <v>130</v>
       </c>
@@ -12499,7 +12473,7 @@
       <c r="AJ99" s="58"/>
       <c r="AK99" s="56"/>
     </row>
-    <row r="100" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B100" s="53" t="s">
         <v>132</v>
       </c>
@@ -12603,12 +12577,12 @@
       <c r="AJ100" s="65"/>
       <c r="AK100" s="60"/>
     </row>
-    <row r="103" spans="2:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B103" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B104" s="45" t="s">
         <v>134</v>
       </c>
@@ -12712,7 +12686,7 @@
       <c r="AJ104" s="48"/>
       <c r="AK104" s="48"/>
     </row>
-    <row r="105" spans="2:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:37" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B105" s="6" t="s">
         <v>282</v>
       </c>
@@ -12845,7 +12819,7 @@
         <v>3.9542602904553552E+16</v>
       </c>
     </row>
-    <row r="106" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B106" s="6" t="s">
         <v>112</v>
       </c>
@@ -12978,7 +12952,7 @@
         <v>1769461914000000</v>
       </c>
     </row>
-    <row r="107" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B107" s="62" t="s">
         <v>111</v>
       </c>
@@ -13111,7 +13085,7 @@
         <v>32598557000000</v>
       </c>
     </row>
-    <row r="108" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B108" s="6" t="s">
         <v>110</v>
       </c>
@@ -13244,7 +13218,7 @@
         <v>227810059000000</v>
       </c>
     </row>
-    <row r="109" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B109" s="6" t="s">
         <v>299</v>
       </c>
@@ -13384,19 +13358,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="10.3984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="47" t="s">
         <v>532</v>
       </c>
@@ -13499,8 +13473,8 @@
       <c r="AI1" s="48"/>
       <c r="AJ1" s="48"/>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="91" t="s">
         <v>113</v>
       </c>
@@ -13511,7 +13485,7 @@
       <c r="F3" s="91"/>
       <c r="G3" s="91"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="91" t="s">
         <v>114</v>
       </c>
@@ -13524,7 +13498,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="91" t="s">
         <v>116</v>
       </c>
@@ -13535,7 +13509,7 @@
       <c r="F5" s="91"/>
       <c r="G5" s="91"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="91" t="s">
         <v>117</v>
       </c>
@@ -13546,7 +13520,7 @@
       <c r="F6" s="91"/>
       <c r="G6" s="91"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="92" t="s">
         <v>314</v>
       </c>
@@ -13554,12 +13528,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="47" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="47" t="s">
         <v>120</v>
       </c>
@@ -13665,7 +13639,7 @@
       <c r="AJ12" s="44"/>
       <c r="AK12" s="44"/>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="48" t="s">
         <v>315</v>
       </c>
@@ -13771,8 +13745,8 @@
       <c r="AJ13" s="48"/>
       <c r="AK13" s="48"/>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="92" t="s">
         <v>316</v>
       </c>
@@ -13881,7 +13855,7 @@
       <c r="AJ15" s="59"/>
       <c r="AK15" s="60"/>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="92" t="s">
         <v>318</v>
       </c>
@@ -13990,7 +13964,7 @@
       <c r="AJ16" s="93"/>
       <c r="AK16" s="56"/>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="92" t="s">
         <v>320</v>
       </c>
@@ -14099,7 +14073,7 @@
       <c r="AJ17" s="93"/>
       <c r="AK17" s="56"/>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="92" t="s">
         <v>322</v>
       </c>
@@ -14208,7 +14182,7 @@
       <c r="AJ18" s="93"/>
       <c r="AK18" s="56"/>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="92" t="s">
         <v>324</v>
       </c>
@@ -14317,7 +14291,7 @@
       <c r="AJ19" s="93"/>
       <c r="AK19" s="56"/>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="92" t="s">
         <v>325</v>
       </c>
@@ -14426,7 +14400,7 @@
       <c r="AJ20" s="93"/>
       <c r="AK20" s="56"/>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="92" t="s">
         <v>327</v>
       </c>
@@ -14535,7 +14509,7 @@
       <c r="AJ21" s="93"/>
       <c r="AK21" s="56"/>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="92" t="s">
         <v>328</v>
       </c>
@@ -14644,7 +14618,7 @@
       <c r="AJ22" s="93"/>
       <c r="AK22" s="56"/>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="92" t="s">
         <v>330</v>
       </c>
@@ -14753,7 +14727,7 @@
       <c r="AJ24" s="59"/>
       <c r="AK24" s="60"/>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="92" t="s">
         <v>332</v>
       </c>
@@ -14862,7 +14836,7 @@
       <c r="AJ25" s="93"/>
       <c r="AK25" s="56"/>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="92" t="s">
         <v>333</v>
       </c>
@@ -14971,7 +14945,7 @@
       <c r="AJ26" s="93"/>
       <c r="AK26" s="56"/>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="92" t="s">
         <v>334</v>
       </c>
@@ -15080,7 +15054,7 @@
       <c r="AJ27" s="93"/>
       <c r="AK27" s="56"/>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="92" t="s">
         <v>335</v>
       </c>
@@ -15189,7 +15163,7 @@
       <c r="AJ28" s="93"/>
       <c r="AK28" s="56"/>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="92" t="s">
         <v>336</v>
       </c>
@@ -15298,7 +15272,7 @@
       <c r="AJ29" s="93"/>
       <c r="AK29" s="56"/>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="92" t="s">
         <v>337</v>
       </c>
@@ -15407,7 +15381,7 @@
       <c r="AJ30" s="93"/>
       <c r="AK30" s="56"/>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="92" t="s">
         <v>338</v>
       </c>
@@ -15516,7 +15490,7 @@
       <c r="AJ31" s="93"/>
       <c r="AK31" s="56"/>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="92" t="s">
         <v>339</v>
       </c>
@@ -15625,7 +15599,7 @@
       <c r="AJ33" s="59"/>
       <c r="AK33" s="60"/>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="92" t="s">
         <v>341</v>
       </c>
@@ -15734,7 +15708,7 @@
       <c r="AJ34" s="93"/>
       <c r="AK34" s="56"/>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="92" t="s">
         <v>343</v>
       </c>
@@ -15843,7 +15817,7 @@
       <c r="AJ35" s="93"/>
       <c r="AK35" s="56"/>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="92" t="s">
         <v>344</v>
       </c>
@@ -15952,7 +15926,7 @@
       <c r="AJ36" s="93"/>
       <c r="AK36" s="56"/>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="92" t="s">
         <v>345</v>
       </c>
@@ -16061,7 +16035,7 @@
       <c r="AJ37" s="93"/>
       <c r="AK37" s="56"/>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="92" t="s">
         <v>346</v>
       </c>
@@ -16170,7 +16144,7 @@
       <c r="AJ38" s="93"/>
       <c r="AK38" s="56"/>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="92" t="s">
         <v>347</v>
       </c>
@@ -16279,7 +16253,7 @@
       <c r="AJ39" s="93"/>
       <c r="AK39" s="56"/>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="92" t="s">
         <v>348</v>
       </c>
@@ -16388,7 +16362,7 @@
       <c r="AJ40" s="93"/>
       <c r="AK40" s="56"/>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="92" t="s">
         <v>349</v>
       </c>
@@ -16497,7 +16471,7 @@
       <c r="AJ43" s="59"/>
       <c r="AK43" s="60"/>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="92" t="s">
         <v>351</v>
       </c>
@@ -16606,7 +16580,7 @@
       <c r="AJ44" s="93"/>
       <c r="AK44" s="56"/>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="92" t="s">
         <v>352</v>
       </c>
@@ -16715,7 +16689,7 @@
       <c r="AJ45" s="93"/>
       <c r="AK45" s="56"/>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="92" t="s">
         <v>354</v>
       </c>
@@ -16824,7 +16798,7 @@
       <c r="AJ46" s="93"/>
       <c r="AK46" s="56"/>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="92" t="s">
         <v>356</v>
       </c>
@@ -16933,7 +16907,7 @@
       <c r="AJ47" s="93"/>
       <c r="AK47" s="56"/>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="92" t="s">
         <v>358</v>
       </c>
@@ -17042,7 +17016,7 @@
       <c r="AJ49" s="59"/>
       <c r="AK49" s="60"/>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="92" t="s">
         <v>360</v>
       </c>
@@ -17151,7 +17125,7 @@
       <c r="AJ50" s="93"/>
       <c r="AK50" s="56"/>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="92" t="s">
         <v>361</v>
       </c>
@@ -17260,7 +17234,7 @@
       <c r="AJ51" s="93"/>
       <c r="AK51" s="56"/>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="92" t="s">
         <v>363</v>
       </c>
@@ -17369,7 +17343,7 @@
       <c r="AJ52" s="93"/>
       <c r="AK52" s="56"/>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="92" t="s">
         <v>364</v>
       </c>
@@ -17478,7 +17452,7 @@
       <c r="AJ53" s="93"/>
       <c r="AK53" s="56"/>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="92" t="s">
         <v>365</v>
       </c>
@@ -17587,7 +17561,7 @@
       <c r="AJ55" s="59"/>
       <c r="AK55" s="60"/>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="92" t="s">
         <v>367</v>
       </c>
@@ -17696,7 +17670,7 @@
       <c r="AJ56" s="93"/>
       <c r="AK56" s="56"/>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="92" t="s">
         <v>368</v>
       </c>
@@ -17805,7 +17779,7 @@
       <c r="AJ57" s="93"/>
       <c r="AK57" s="56"/>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="92" t="s">
         <v>369</v>
       </c>
@@ -17914,7 +17888,7 @@
       <c r="AJ58" s="93"/>
       <c r="AK58" s="56"/>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="92" t="s">
         <v>370</v>
       </c>
@@ -18023,7 +17997,7 @@
       <c r="AJ59" s="93"/>
       <c r="AK59" s="56"/>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="92" t="s">
         <v>371</v>
       </c>
@@ -18132,7 +18106,7 @@
       <c r="AJ61" s="59"/>
       <c r="AK61" s="60"/>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="92" t="s">
         <v>373</v>
       </c>
@@ -18241,7 +18215,7 @@
       <c r="AJ62" s="93"/>
       <c r="AK62" s="56"/>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="92" t="s">
         <v>375</v>
       </c>
@@ -18350,7 +18324,7 @@
       <c r="AJ63" s="93"/>
       <c r="AK63" s="56"/>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="92" t="s">
         <v>376</v>
       </c>
@@ -18459,7 +18433,7 @@
       <c r="AJ65" s="59"/>
       <c r="AK65" s="60"/>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="92" t="s">
         <v>378</v>
       </c>
@@ -18568,7 +18542,7 @@
       <c r="AJ66" s="93"/>
       <c r="AK66" s="56"/>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="92" t="s">
         <v>380</v>
       </c>
@@ -18677,7 +18651,7 @@
       <c r="AJ67" s="93"/>
       <c r="AK67" s="56"/>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="92" t="s">
         <v>381</v>
       </c>
@@ -18786,7 +18760,7 @@
       <c r="AJ68" s="93"/>
       <c r="AK68" s="56"/>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="92" t="s">
         <v>383</v>
       </c>
@@ -18895,7 +18869,7 @@
       <c r="AJ70" s="59"/>
       <c r="AK70" s="60"/>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="92" t="s">
         <v>385</v>
       </c>
@@ -19004,7 +18978,7 @@
       <c r="AJ71" s="93"/>
       <c r="AK71" s="56"/>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="92" t="s">
         <v>387</v>
       </c>
@@ -19113,7 +19087,7 @@
       <c r="AJ72" s="93"/>
       <c r="AK72" s="56"/>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="92" t="s">
         <v>389</v>
       </c>
@@ -19222,7 +19196,7 @@
       <c r="AJ73" s="93"/>
       <c r="AK73" s="56"/>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="92" t="s">
         <v>391</v>
       </c>
@@ -19331,7 +19305,7 @@
       <c r="AJ74" s="93"/>
       <c r="AK74" s="56"/>
     </row>
-    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="92" t="s">
         <v>393</v>
       </c>
@@ -19440,7 +19414,7 @@
       <c r="AJ75" s="93"/>
       <c r="AK75" s="56"/>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="92" t="s">
         <v>395</v>
       </c>
@@ -19549,7 +19523,7 @@
       <c r="AJ76" s="93"/>
       <c r="AK76" s="56"/>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="92" t="s">
         <v>396</v>
       </c>
@@ -19658,7 +19632,7 @@
       <c r="AJ77" s="93"/>
       <c r="AK77" s="56"/>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="92" t="s">
         <v>398</v>
       </c>
@@ -19767,7 +19741,7 @@
       <c r="AJ78" s="93"/>
       <c r="AK78" s="56"/>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="92" t="s">
         <v>400</v>
       </c>
@@ -19876,7 +19850,7 @@
       <c r="AJ79" s="93"/>
       <c r="AK79" s="56"/>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="92" t="s">
         <v>402</v>
       </c>
@@ -19985,7 +19959,7 @@
       <c r="AJ80" s="93"/>
       <c r="AK80" s="56"/>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="92" t="s">
         <v>403</v>
       </c>
@@ -20094,7 +20068,7 @@
       <c r="AJ81" s="93"/>
       <c r="AK81" s="56"/>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="92" t="s">
         <v>404</v>
       </c>
@@ -20203,7 +20177,7 @@
       <c r="AJ82" s="93"/>
       <c r="AK82" s="56"/>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="92" t="s">
         <v>405</v>
       </c>
@@ -20312,7 +20286,7 @@
       <c r="AJ83" s="93"/>
       <c r="AK83" s="56"/>
     </row>
-    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="92" t="s">
         <v>406</v>
       </c>
@@ -20421,7 +20395,7 @@
       <c r="AJ84" s="93"/>
       <c r="AK84" s="56"/>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="92" t="s">
         <v>407</v>
       </c>
@@ -20530,7 +20504,7 @@
       <c r="AJ85" s="93"/>
       <c r="AK85" s="56"/>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="92" t="s">
         <v>408</v>
       </c>
@@ -20639,7 +20613,7 @@
       <c r="AJ86" s="93"/>
       <c r="AK86" s="56"/>
     </row>
-    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="92" t="s">
         <v>409</v>
       </c>
@@ -20748,7 +20722,7 @@
       <c r="AJ87" s="93"/>
       <c r="AK87" s="56"/>
     </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="92" t="s">
         <v>411</v>
       </c>
@@ -20857,7 +20831,7 @@
       <c r="AJ88" s="93"/>
       <c r="AK88" s="56"/>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="92" t="s">
         <v>412</v>
       </c>
@@ -20966,7 +20940,7 @@
       <c r="AJ89" s="93"/>
       <c r="AK89" s="56"/>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="92" t="s">
         <v>413</v>
       </c>
@@ -21075,7 +21049,7 @@
       <c r="AJ90" s="93"/>
       <c r="AK90" s="56"/>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="92" t="s">
         <v>414</v>
       </c>
@@ -21184,7 +21158,7 @@
       <c r="AJ91" s="93"/>
       <c r="AK91" s="56"/>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="92" t="s">
         <v>415</v>
       </c>
@@ -21293,7 +21267,7 @@
       <c r="AJ92" s="93"/>
       <c r="AK92" s="56"/>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="92" t="s">
         <v>416</v>
       </c>
@@ -21402,7 +21376,7 @@
       <c r="AJ93" s="93"/>
       <c r="AK93" s="56"/>
     </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="92" t="s">
         <v>417</v>
       </c>
@@ -21511,7 +21485,7 @@
       <c r="AJ94" s="93"/>
       <c r="AK94" s="56"/>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="92" t="s">
         <v>418</v>
       </c>
@@ -21620,7 +21594,7 @@
       <c r="AJ95" s="59"/>
       <c r="AK95" s="60"/>
     </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="92" t="s">
         <v>420</v>
       </c>
@@ -21729,7 +21703,7 @@
       <c r="AJ96" s="93"/>
       <c r="AK96" s="56"/>
     </row>
-    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="92" t="s">
         <v>422</v>
       </c>
@@ -21838,7 +21812,7 @@
       <c r="AJ97" s="93"/>
       <c r="AK97" s="56"/>
     </row>
-    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="92" t="s">
         <v>423</v>
       </c>
@@ -21947,7 +21921,7 @@
       <c r="AJ98" s="93"/>
       <c r="AK98" s="56"/>
     </row>
-    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="92" t="s">
         <v>425</v>
       </c>
@@ -22056,7 +22030,7 @@
       <c r="AJ99" s="93"/>
       <c r="AK99" s="56"/>
     </row>
-    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="92" t="s">
         <v>427</v>
       </c>
@@ -22165,7 +22139,7 @@
       <c r="AJ100" s="93"/>
       <c r="AK100" s="56"/>
     </row>
-    <row r="101" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="92" t="s">
         <v>429</v>
       </c>
@@ -22274,7 +22248,7 @@
       <c r="AJ101" s="93"/>
       <c r="AK101" s="56"/>
     </row>
-    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="92" t="s">
         <v>431</v>
       </c>
@@ -22383,7 +22357,7 @@
       <c r="AJ102" s="93"/>
       <c r="AK102" s="56"/>
     </row>
-    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="92" t="s">
         <v>432</v>
       </c>
@@ -22492,7 +22466,7 @@
       <c r="AJ103" s="93"/>
       <c r="AK103" s="56"/>
     </row>
-    <row r="104" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="92" t="s">
         <v>434</v>
       </c>
@@ -22601,7 +22575,7 @@
       <c r="AJ104" s="93"/>
       <c r="AK104" s="56"/>
     </row>
-    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="92" t="s">
         <v>435</v>
       </c>
@@ -22710,7 +22684,7 @@
       <c r="AJ105" s="93"/>
       <c r="AK105" s="56"/>
     </row>
-    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="92" t="s">
         <v>436</v>
       </c>
@@ -22819,7 +22793,7 @@
       <c r="AJ106" s="93"/>
       <c r="AK106" s="56"/>
     </row>
-    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="92" t="s">
         <v>437</v>
       </c>
@@ -22928,7 +22902,7 @@
       <c r="AJ107" s="93"/>
       <c r="AK107" s="56"/>
     </row>
-    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="92" t="s">
         <v>438</v>
       </c>
@@ -23037,7 +23011,7 @@
       <c r="AJ109" s="59"/>
       <c r="AK109" s="60"/>
     </row>
-    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="92" t="s">
         <v>440</v>
       </c>
@@ -23146,7 +23120,7 @@
       <c r="AJ110" s="93"/>
       <c r="AK110" s="56"/>
     </row>
-    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="92" t="s">
         <v>442</v>
       </c>
@@ -23255,7 +23229,7 @@
       <c r="AJ111" s="93"/>
       <c r="AK111" s="56"/>
     </row>
-    <row r="113" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="92" t="s">
         <v>443</v>
       </c>
@@ -23364,7 +23338,7 @@
       <c r="AJ113" s="93"/>
       <c r="AK113" s="56"/>
     </row>
-    <row r="114" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="92" t="s">
         <v>445</v>
       </c>
@@ -23473,7 +23447,7 @@
       <c r="AJ114" s="93"/>
       <c r="AK114" s="56"/>
     </row>
-    <row r="116" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="92" t="s">
         <v>447</v>
       </c>
@@ -23582,8 +23556,8 @@
       <c r="AJ116" s="59"/>
       <c r="AK116" s="60"/>
     </row>
-    <row r="117" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="118" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="96" t="s">
         <v>449</v>
       </c>
@@ -23623,62 +23597,62 @@
       <c r="AJ118" s="96"/>
       <c r="AK118" s="96"/>
     </row>
-    <row r="119" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="45" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="45" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="45" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="45" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="45" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="45" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="45" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="45"/>
     </row>
-    <row r="128" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="45"/>
     </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="45"/>
     </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="45"/>
     </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="45"/>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="45"/>
     </row>
   </sheetData>
@@ -23687,19 +23661,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="46" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="11.265625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" style="46" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="47" t="s">
         <v>532</v>
       </c>
@@ -23802,8 +23776,8 @@
       <c r="AI1" s="48"/>
       <c r="AJ1" s="48"/>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="49" t="s">
         <v>113</v>
       </c>
@@ -23814,7 +23788,7 @@
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="49" t="s">
         <v>114</v>
       </c>
@@ -23827,7 +23801,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="49" t="s">
         <v>116</v>
       </c>
@@ -23838,7 +23812,7 @@
       <c r="F5" s="49"/>
       <c r="G5" s="49"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="49" t="s">
         <v>117</v>
       </c>
@@ -23849,7 +23823,7 @@
       <c r="F6" s="49"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="50" t="s">
         <v>135</v>
       </c>
@@ -23857,12 +23831,12 @@
         <v>539</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="47" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="47" t="s">
         <v>120</v>
       </c>
@@ -23968,7 +23942,7 @@
       <c r="AJ12" s="52"/>
       <c r="AK12" s="52"/>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="48" t="s">
         <v>120</v>
       </c>
@@ -24074,17 +24048,17 @@
       <c r="AJ13" s="48"/>
       <c r="AK13" s="48"/>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B14" s="53" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="53" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="50" t="s">
         <v>139</v>
       </c>
@@ -24193,7 +24167,7 @@
       <c r="AJ16" s="55"/>
       <c r="AK16" s="56"/>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="50" t="s">
         <v>141</v>
       </c>
@@ -24302,7 +24276,7 @@
       <c r="AJ17" s="55"/>
       <c r="AK17" s="56"/>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="50" t="s">
         <v>143</v>
       </c>
@@ -24411,7 +24385,7 @@
       <c r="AJ18" s="55"/>
       <c r="AK18" s="56"/>
     </row>
-    <row r="19" spans="1:37" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="78" t="s">
         <v>145</v>
       </c>
@@ -24520,7 +24494,7 @@
       <c r="AJ19" s="80"/>
       <c r="AK19" s="81"/>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="50" t="s">
         <v>147</v>
       </c>
@@ -24629,7 +24603,7 @@
       <c r="AJ20" s="55"/>
       <c r="AK20" s="56"/>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="50" t="s">
         <v>149</v>
       </c>
@@ -24738,7 +24712,7 @@
       <c r="AJ21" s="55"/>
       <c r="AK21" s="56"/>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="50" t="s">
         <v>151</v>
       </c>
@@ -24847,7 +24821,7 @@
       <c r="AJ22" s="55"/>
       <c r="AK22" s="56"/>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="50" t="s">
         <v>153</v>
       </c>
@@ -24956,7 +24930,7 @@
       <c r="AJ23" s="55"/>
       <c r="AK23" s="56"/>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="50" t="s">
         <v>155</v>
       </c>
@@ -25065,7 +25039,7 @@
       <c r="AJ24" s="55"/>
       <c r="AK24" s="56"/>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="50" t="s">
         <v>157</v>
       </c>
@@ -25174,7 +25148,7 @@
       <c r="AJ25" s="55"/>
       <c r="AK25" s="56"/>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="50" t="s">
         <v>159</v>
       </c>
@@ -25283,7 +25257,7 @@
       <c r="AJ26" s="55"/>
       <c r="AK26" s="56"/>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="50" t="s">
         <v>161</v>
       </c>
@@ -25392,7 +25366,7 @@
       <c r="AJ27" s="55"/>
       <c r="AK27" s="56"/>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="50" t="s">
         <v>163</v>
       </c>
@@ -25501,7 +25475,7 @@
       <c r="AJ28" s="55"/>
       <c r="AK28" s="56"/>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="50" t="s">
         <v>165</v>
       </c>
@@ -25610,7 +25584,7 @@
       <c r="AJ29" s="55"/>
       <c r="AK29" s="56"/>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="50" t="s">
         <v>167</v>
       </c>
@@ -25719,7 +25693,7 @@
       <c r="AJ30" s="55"/>
       <c r="AK30" s="56"/>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="50" t="s">
         <v>169</v>
       </c>
@@ -25828,7 +25802,7 @@
       <c r="AJ31" s="55"/>
       <c r="AK31" s="56"/>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="50" t="s">
         <v>171</v>
       </c>
@@ -25937,7 +25911,7 @@
       <c r="AJ32" s="55"/>
       <c r="AK32" s="56"/>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="50" t="s">
         <v>173</v>
       </c>
@@ -26046,7 +26020,7 @@
       <c r="AJ33" s="55"/>
       <c r="AK33" s="56"/>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="50" t="s">
         <v>175</v>
       </c>
@@ -26155,7 +26129,7 @@
       <c r="AJ34" s="55"/>
       <c r="AK34" s="56"/>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="50" t="s">
         <v>177</v>
       </c>
@@ -26264,7 +26238,7 @@
       <c r="AJ35" s="55"/>
       <c r="AK35" s="56"/>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="50" t="s">
         <v>179</v>
       </c>
@@ -26373,7 +26347,7 @@
       <c r="AJ36" s="55"/>
       <c r="AK36" s="56"/>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="50" t="s">
         <v>181</v>
       </c>
@@ -26482,7 +26456,7 @@
       <c r="AJ37" s="55"/>
       <c r="AK37" s="56"/>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="50" t="s">
         <v>183</v>
       </c>
@@ -26591,7 +26565,7 @@
       <c r="AJ38" s="55"/>
       <c r="AK38" s="56"/>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="50" t="s">
         <v>185</v>
       </c>
@@ -26700,7 +26674,7 @@
       <c r="AJ39" s="55"/>
       <c r="AK39" s="56"/>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="50" t="s">
         <v>187</v>
       </c>
@@ -26809,7 +26783,7 @@
       <c r="AJ40" s="55"/>
       <c r="AK40" s="56"/>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="50" t="s">
         <v>189</v>
       </c>
@@ -26918,7 +26892,7 @@
       <c r="AJ41" s="55"/>
       <c r="AK41" s="56"/>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="50" t="s">
         <v>191</v>
       </c>
@@ -27027,7 +27001,7 @@
       <c r="AJ42" s="55"/>
       <c r="AK42" s="56"/>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="50" t="s">
         <v>193</v>
       </c>
@@ -27136,7 +27110,7 @@
       <c r="AJ43" s="55"/>
       <c r="AK43" s="56"/>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="50" t="s">
         <v>195</v>
       </c>
@@ -27245,7 +27219,7 @@
       <c r="AJ44" s="55"/>
       <c r="AK44" s="56"/>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="50" t="s">
         <v>197</v>
       </c>
@@ -27354,7 +27328,7 @@
       <c r="AJ45" s="55"/>
       <c r="AK45" s="56"/>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="50" t="s">
         <v>199</v>
       </c>
@@ -27463,12 +27437,12 @@
       <c r="AJ46" s="55"/>
       <c r="AK46" s="56"/>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="57" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="50" t="s">
         <v>202</v>
       </c>
@@ -27577,7 +27551,7 @@
       <c r="AJ48" s="55"/>
       <c r="AK48" s="56"/>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="50" t="s">
         <v>204</v>
       </c>
@@ -27686,7 +27660,7 @@
       <c r="AJ49" s="55"/>
       <c r="AK49" s="56"/>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="50" t="s">
         <v>206</v>
       </c>
@@ -27795,7 +27769,7 @@
       <c r="AJ50" s="55"/>
       <c r="AK50" s="56"/>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="50" t="s">
         <v>208</v>
       </c>
@@ -27904,12 +27878,12 @@
       <c r="AJ51" s="55"/>
       <c r="AK51" s="56"/>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="53" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="50" t="s">
         <v>211</v>
       </c>
@@ -28018,7 +27992,7 @@
       <c r="AJ54" s="55"/>
       <c r="AK54" s="56"/>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="50" t="s">
         <v>213</v>
       </c>
@@ -28127,7 +28101,7 @@
       <c r="AJ55" s="55"/>
       <c r="AK55" s="56"/>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="50" t="s">
         <v>215</v>
       </c>
@@ -28236,7 +28210,7 @@
       <c r="AJ56" s="55"/>
       <c r="AK56" s="56"/>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="50" t="s">
         <v>217</v>
       </c>
@@ -28345,7 +28319,7 @@
       <c r="AJ57" s="55"/>
       <c r="AK57" s="56"/>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="50" t="s">
         <v>219</v>
       </c>
@@ -28454,7 +28428,7 @@
       <c r="AJ58" s="55"/>
       <c r="AK58" s="56"/>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="50" t="s">
         <v>221</v>
       </c>
@@ -28563,7 +28537,7 @@
       <c r="AJ59" s="55"/>
       <c r="AK59" s="56"/>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="50" t="s">
         <v>223</v>
       </c>
@@ -28672,12 +28646,12 @@
       <c r="AJ60" s="55"/>
       <c r="AK60" s="56"/>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="53" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="50" t="s">
         <v>226</v>
       </c>
@@ -28786,7 +28760,7 @@
       <c r="AJ63" s="58"/>
       <c r="AK63" s="56"/>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="50" t="s">
         <v>227</v>
       </c>
@@ -28895,7 +28869,7 @@
       <c r="AJ64" s="58"/>
       <c r="AK64" s="56"/>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="50" t="s">
         <v>229</v>
       </c>
@@ -29004,7 +28978,7 @@
       <c r="AJ65" s="58"/>
       <c r="AK65" s="56"/>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="50" t="s">
         <v>231</v>
       </c>
@@ -29113,7 +29087,7 @@
       <c r="AJ66" s="58"/>
       <c r="AK66" s="56"/>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="50" t="s">
         <v>232</v>
       </c>
@@ -29222,7 +29196,7 @@
       <c r="AJ67" s="58"/>
       <c r="AK67" s="56"/>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="50" t="s">
         <v>234</v>
       </c>
@@ -29331,7 +29305,7 @@
       <c r="AJ68" s="58"/>
       <c r="AK68" s="56"/>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="50" t="s">
         <v>236</v>
       </c>
@@ -29440,7 +29414,7 @@
       <c r="AJ69" s="58"/>
       <c r="AK69" s="56"/>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="50" t="s">
         <v>238</v>
       </c>
@@ -29549,7 +29523,7 @@
       <c r="AJ70" s="58"/>
       <c r="AK70" s="56"/>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="50" t="s">
         <v>240</v>
       </c>
@@ -29658,7 +29632,7 @@
       <c r="AJ71" s="58"/>
       <c r="AK71" s="56"/>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="50" t="s">
         <v>241</v>
       </c>
@@ -29767,7 +29741,7 @@
       <c r="AJ72" s="58"/>
       <c r="AK72" s="56"/>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="50" t="s">
         <v>242</v>
       </c>
@@ -29876,7 +29850,7 @@
       <c r="AJ73" s="58"/>
       <c r="AK73" s="56"/>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="50" t="s">
         <v>244</v>
       </c>
@@ -29985,7 +29959,7 @@
       <c r="AJ74" s="58"/>
       <c r="AK74" s="56"/>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="50"/>
       <c r="B76" s="53" t="s">
         <v>540</v>
@@ -30026,12 +30000,12 @@
       <c r="AJ76" s="59"/>
       <c r="AK76" s="60"/>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B77" s="46" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="46" t="s">
         <v>246</v>
       </c>
@@ -30140,7 +30114,7 @@
       <c r="AJ78" s="96"/>
       <c r="AK78" s="96"/>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="46" t="s">
         <v>543</v>
       </c>
@@ -30247,32 +30221,32 @@
         <v>-5.0530000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="61" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="61" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="61" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="61" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="61" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="61" t="s">
         <v>546</v>
       </c>
@@ -30284,22 +30258,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK164"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="41" style="6" customWidth="1"/>
-    <col min="3" max="34" width="9.140625" customWidth="1"/>
-    <col min="35" max="36" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="34" width="9.1328125" customWidth="1"/>
+    <col min="35" max="36" width="9.1328125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30405,7 +30379,7 @@
       <c r="AI1" s="26"/>
       <c r="AJ1" s="26"/>
     </row>
-    <row r="2" spans="1:36" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="9" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -30413,7 +30387,7 @@
       <c r="AI2" s="29"/>
       <c r="AJ2" s="29"/>
     </row>
-    <row r="3" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -30520,7 +30494,7 @@
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
@@ -30627,7 +30601,7 @@
       <c r="AI4" s="15"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>79</v>
       </c>
@@ -30734,7 +30708,7 @@
       <c r="AI5" s="15"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -30841,7 +30815,7 @@
       <c r="AI6" s="15"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -30948,7 +30922,7 @@
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>80</v>
       </c>
@@ -31052,7 +31026,7 @@
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -31156,7 +31130,7 @@
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
@@ -31260,7 +31234,7 @@
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
@@ -31364,7 +31338,7 @@
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -31468,7 +31442,7 @@
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
@@ -31572,7 +31546,7 @@
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -31676,7 +31650,7 @@
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>1</v>
       </c>
@@ -31780,7 +31754,7 @@
       <c r="AI15" s="17"/>
       <c r="AJ15" s="17"/>
     </row>
-    <row r="16" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -31788,7 +31762,7 @@
       <c r="AI16" s="29"/>
       <c r="AJ16" s="29"/>
     </row>
-    <row r="17" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="67" t="s">
         <v>13</v>
       </c>
@@ -31893,7 +31867,7 @@
       <c r="AJ17" s="15"/>
       <c r="AK17" s="69"/>
     </row>
-    <row r="18" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="67" t="s">
         <v>12</v>
       </c>
@@ -31998,7 +31972,7 @@
       <c r="AJ18" s="15"/>
       <c r="AK18" s="69"/>
     </row>
-    <row r="19" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="67" t="s">
         <v>14</v>
       </c>
@@ -32103,7 +32077,7 @@
       <c r="AJ19" s="15"/>
       <c r="AK19" s="69"/>
     </row>
-    <row r="20" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
@@ -32208,7 +32182,7 @@
       <c r="AJ20" s="15"/>
       <c r="AK20" s="69"/>
     </row>
-    <row r="21" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="67" t="s">
         <v>23</v>
       </c>
@@ -32313,7 +32287,7 @@
       <c r="AJ21" s="15"/>
       <c r="AK21" s="69"/>
     </row>
-    <row r="22" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="67" t="s">
         <v>16</v>
       </c>
@@ -32418,7 +32392,7 @@
       <c r="AJ22" s="15"/>
       <c r="AK22" s="69"/>
     </row>
-    <row r="23" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="67" t="s">
         <v>80</v>
       </c>
@@ -32523,7 +32497,7 @@
       <c r="AJ23" s="15"/>
       <c r="AK23" s="69"/>
     </row>
-    <row r="24" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="67" t="s">
         <v>17</v>
       </c>
@@ -32628,7 +32602,7 @@
       <c r="AJ24" s="15"/>
       <c r="AK24" s="69"/>
     </row>
-    <row r="25" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="67" t="s">
         <v>24</v>
       </c>
@@ -32733,7 +32707,7 @@
       <c r="AJ25" s="15"/>
       <c r="AK25" s="69"/>
     </row>
-    <row r="26" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="67" t="s">
         <v>25</v>
       </c>
@@ -32838,7 +32812,7 @@
       <c r="AJ26" s="15"/>
       <c r="AK26" s="69"/>
     </row>
-    <row r="27" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="67" t="s">
         <v>26</v>
       </c>
@@ -32943,7 +32917,7 @@
       <c r="AJ27" s="15"/>
       <c r="AK27" s="69"/>
     </row>
-    <row r="28" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="67" t="s">
         <v>27</v>
       </c>
@@ -33048,7 +33022,7 @@
       <c r="AJ28" s="15"/>
       <c r="AK28" s="69"/>
     </row>
-    <row r="29" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="67" t="s">
         <v>104</v>
       </c>
@@ -33153,7 +33127,7 @@
       <c r="AJ29" s="15"/>
       <c r="AK29" s="69"/>
     </row>
-    <row r="30" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="67" t="s">
         <v>22</v>
       </c>
@@ -33258,7 +33232,7 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="69"/>
     </row>
-    <row r="31" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="71" t="s">
         <v>1</v>
       </c>
@@ -33363,7 +33337,7 @@
       <c r="AJ31" s="17"/>
       <c r="AK31" s="73"/>
     </row>
-    <row r="32" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>83</v>
       </c>
@@ -33371,7 +33345,7 @@
       <c r="AI32" s="29"/>
       <c r="AJ32" s="29"/>
     </row>
-    <row r="33" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
         <v>12</v>
       </c>
@@ -33478,7 +33452,7 @@
       <c r="AI33" s="15"/>
       <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="14" t="s">
         <v>13</v>
       </c>
@@ -33585,7 +33559,7 @@
       <c r="AI34" s="15"/>
       <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="14" t="s">
         <v>79</v>
       </c>
@@ -33692,7 +33666,7 @@
       <c r="AI35" s="15"/>
       <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
         <v>16</v>
       </c>
@@ -33799,7 +33773,7 @@
       <c r="AI36" s="15"/>
       <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="14" t="s">
         <v>80</v>
       </c>
@@ -33903,7 +33877,7 @@
       <c r="AI37" s="15"/>
       <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
         <v>17</v>
       </c>
@@ -34007,7 +33981,7 @@
       <c r="AI38" s="15"/>
       <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="14" t="s">
         <v>19</v>
       </c>
@@ -34111,7 +34085,7 @@
       <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
     </row>
-    <row r="40" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="14" t="s">
         <v>29</v>
       </c>
@@ -34215,7 +34189,7 @@
       <c r="AI40" s="15"/>
       <c r="AJ40" s="15"/>
     </row>
-    <row r="41" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="14" t="s">
         <v>18</v>
       </c>
@@ -34319,7 +34293,7 @@
       <c r="AI41" s="15"/>
       <c r="AJ41" s="15"/>
     </row>
-    <row r="42" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="14" t="s">
         <v>20</v>
       </c>
@@ -34423,7 +34397,7 @@
       <c r="AI42" s="15"/>
       <c r="AJ42" s="15"/>
     </row>
-    <row r="43" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
         <v>21</v>
       </c>
@@ -34527,7 +34501,7 @@
       <c r="AI43" s="15"/>
       <c r="AJ43" s="15"/>
     </row>
-    <row r="44" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="14" t="s">
         <v>22</v>
       </c>
@@ -34631,7 +34605,7 @@
       <c r="AI44" s="15"/>
       <c r="AJ44" s="15"/>
     </row>
-    <row r="45" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>1</v>
       </c>
@@ -34735,7 +34709,7 @@
       <c r="AI45" s="17"/>
       <c r="AJ45" s="17"/>
     </row>
-    <row r="46" spans="1:36" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="98" t="s">
         <v>466</v>
       </c>
@@ -34743,13 +34717,13 @@
       <c r="AI46" s="29"/>
       <c r="AJ46" s="29"/>
     </row>
-    <row r="47" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B47" s="28"/>
     </row>
-    <row r="48" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
         <v>30</v>
       </c>
@@ -34855,7 +34829,7 @@
       <c r="AI48" s="15"/>
       <c r="AJ48" s="15"/>
     </row>
-    <row r="49" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="14" t="s">
         <v>31</v>
       </c>
@@ -34961,7 +34935,7 @@
       <c r="AI49" s="15"/>
       <c r="AJ49" s="15"/>
     </row>
-    <row r="50" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="14" t="s">
         <v>84</v>
       </c>
@@ -35067,7 +35041,7 @@
       <c r="AI50" s="15"/>
       <c r="AJ50" s="15"/>
     </row>
-    <row r="51" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="14" t="s">
         <v>32</v>
       </c>
@@ -35173,7 +35147,7 @@
       <c r="AI51" s="15"/>
       <c r="AJ51" s="15"/>
     </row>
-    <row r="52" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="14" t="s">
         <v>33</v>
       </c>
@@ -35279,7 +35253,7 @@
       <c r="AI52" s="15"/>
       <c r="AJ52" s="15"/>
     </row>
-    <row r="53" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="14" t="s">
         <v>85</v>
       </c>
@@ -35383,7 +35357,7 @@
       <c r="AI53" s="15"/>
       <c r="AJ53" s="15"/>
     </row>
-    <row r="54" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="14" t="s">
         <v>34</v>
       </c>
@@ -35487,7 +35461,7 @@
       <c r="AI54" s="15"/>
       <c r="AJ54" s="15"/>
     </row>
-    <row r="55" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="14" t="s">
         <v>35</v>
       </c>
@@ -35591,7 +35565,7 @@
       <c r="AI55" s="15"/>
       <c r="AJ55" s="15"/>
     </row>
-    <row r="56" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="14" t="s">
         <v>36</v>
       </c>
@@ -35695,7 +35669,7 @@
       <c r="AI56" s="15"/>
       <c r="AJ56" s="15"/>
     </row>
-    <row r="57" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="14" t="s">
         <v>37</v>
       </c>
@@ -35799,7 +35773,7 @@
       <c r="AI57" s="15"/>
       <c r="AJ57" s="15"/>
     </row>
-    <row r="58" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="14" t="s">
         <v>38</v>
       </c>
@@ -35903,7 +35877,7 @@
       <c r="AI58" s="15"/>
       <c r="AJ58" s="15"/>
     </row>
-    <row r="59" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="30" t="s">
         <v>106</v>
       </c>
@@ -35943,7 +35917,7 @@
       <c r="AI59" s="15"/>
       <c r="AJ59" s="15"/>
     </row>
-    <row r="60" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="14" t="s">
         <v>107</v>
       </c>
@@ -36050,7 +36024,7 @@
       <c r="AJ60" s="15"/>
       <c r="AK60" s="22"/>
     </row>
-    <row r="61" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="14" t="s">
         <v>470</v>
       </c>
@@ -36155,7 +36129,7 @@
       <c r="AJ61" s="15"/>
       <c r="AK61" s="22"/>
     </row>
-    <row r="62" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
         <v>108</v>
       </c>
@@ -36262,7 +36236,7 @@
       <c r="AJ62" s="15"/>
       <c r="AK62" s="22"/>
     </row>
-    <row r="63" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="14" t="s">
         <v>34</v>
       </c>
@@ -36367,7 +36341,7 @@
       <c r="AJ63" s="15"/>
       <c r="AK63" s="22"/>
     </row>
-    <row r="64" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="14" t="s">
         <v>109</v>
       </c>
@@ -36472,7 +36446,7 @@
       <c r="AJ64" s="15"/>
       <c r="AK64" s="22"/>
     </row>
-    <row r="65" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>471</v>
       </c>
@@ -36480,7 +36454,7 @@
       <c r="AI65" s="29"/>
       <c r="AJ65" s="29"/>
     </row>
-    <row r="66" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="14" t="s">
         <v>39</v>
       </c>
@@ -36587,7 +36561,7 @@
       <c r="AJ66" s="15"/>
       <c r="AK66" s="22"/>
     </row>
-    <row r="67" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="14" t="s">
         <v>40</v>
       </c>
@@ -36694,7 +36668,7 @@
       <c r="AJ67" s="15"/>
       <c r="AK67" s="22"/>
     </row>
-    <row r="68" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="14" t="s">
         <v>41</v>
       </c>
@@ -36801,7 +36775,7 @@
       <c r="AJ68" s="15"/>
       <c r="AK68" s="22"/>
     </row>
-    <row r="69" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="14" t="s">
         <v>42</v>
       </c>
@@ -36908,7 +36882,7 @@
       <c r="AJ69" s="15"/>
       <c r="AK69" s="22"/>
     </row>
-    <row r="70" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="14" t="s">
         <v>86</v>
       </c>
@@ -37013,7 +36987,7 @@
       <c r="AJ70" s="15"/>
       <c r="AK70" s="22"/>
     </row>
-    <row r="71" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="14" t="s">
         <v>43</v>
       </c>
@@ -37118,7 +37092,7 @@
       <c r="AJ71" s="15"/>
       <c r="AK71" s="22"/>
     </row>
-    <row r="72" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="14" t="s">
         <v>99</v>
       </c>
@@ -37223,7 +37197,7 @@
       <c r="AJ72" s="15"/>
       <c r="AK72" s="22"/>
     </row>
-    <row r="73" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="14" t="s">
         <v>44</v>
       </c>
@@ -37328,7 +37302,7 @@
       <c r="AJ73" s="15"/>
       <c r="AK73" s="22"/>
     </row>
-    <row r="74" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="14" t="s">
         <v>45</v>
       </c>
@@ -37433,7 +37407,7 @@
       <c r="AJ74" s="15"/>
       <c r="AK74" s="22"/>
     </row>
-    <row r="75" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="14" t="s">
         <v>46</v>
       </c>
@@ -37538,7 +37512,7 @@
       <c r="AJ75" s="15"/>
       <c r="AK75" s="22"/>
     </row>
-    <row r="76" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="14" t="s">
         <v>47</v>
       </c>
@@ -37643,7 +37617,7 @@
       <c r="AJ76" s="15"/>
       <c r="AK76" s="22"/>
     </row>
-    <row r="77" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
         <v>48</v>
       </c>
@@ -37748,7 +37722,7 @@
       <c r="AJ77" s="17"/>
       <c r="AK77" s="23"/>
     </row>
-    <row r="78" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>91</v>
       </c>
@@ -37756,7 +37730,7 @@
       <c r="AI78" s="29"/>
       <c r="AJ78" s="29"/>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A79" s="11" t="s">
         <v>87</v>
       </c>
@@ -37860,7 +37834,7 @@
       <c r="AI79" s="40"/>
       <c r="AJ79" s="40"/>
     </row>
-    <row r="80" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="11" t="s">
         <v>89</v>
       </c>
@@ -37895,7 +37869,7 @@
       <c r="AI80" s="29"/>
       <c r="AJ80" s="29"/>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A81" s="11" t="s">
         <v>88</v>
       </c>
@@ -37928,7 +37902,7 @@
       <c r="Z81" s="13"/>
       <c r="AA81" s="13"/>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A82" s="11" t="s">
         <v>90</v>
       </c>
@@ -38064,7 +38038,7 @@
       <c r="AI82" s="42"/>
       <c r="AJ82" s="42"/>
     </row>
-    <row r="83" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
@@ -38072,7 +38046,7 @@
       <c r="AI83" s="29"/>
       <c r="AJ83" s="29"/>
     </row>
-    <row r="84" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="14" t="s">
         <v>39</v>
       </c>
@@ -38178,7 +38152,7 @@
       <c r="AI84" s="15"/>
       <c r="AJ84" s="15"/>
     </row>
-    <row r="85" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="14" t="s">
         <v>40</v>
       </c>
@@ -38284,7 +38258,7 @@
       <c r="AI85" s="15"/>
       <c r="AJ85" s="15"/>
     </row>
-    <row r="86" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="14" t="s">
         <v>93</v>
       </c>
@@ -38390,7 +38364,7 @@
       <c r="AI86" s="15"/>
       <c r="AJ86" s="15"/>
     </row>
-    <row r="87" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="14" t="s">
         <v>41</v>
       </c>
@@ -38496,7 +38470,7 @@
       <c r="AI87" s="15"/>
       <c r="AJ87" s="15"/>
     </row>
-    <row r="88" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="14" t="s">
         <v>42</v>
       </c>
@@ -38602,7 +38576,7 @@
       <c r="AI88" s="15"/>
       <c r="AJ88" s="15"/>
     </row>
-    <row r="89" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="14" t="s">
         <v>86</v>
       </c>
@@ -38706,7 +38680,7 @@
       <c r="AI89" s="15"/>
       <c r="AJ89" s="15"/>
     </row>
-    <row r="90" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="14" t="s">
         <v>43</v>
       </c>
@@ -38810,7 +38784,7 @@
       <c r="AI90" s="15"/>
       <c r="AJ90" s="15"/>
     </row>
-    <row r="91" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="14" t="s">
         <v>44</v>
       </c>
@@ -38914,7 +38888,7 @@
       <c r="AI91" s="15"/>
       <c r="AJ91" s="15"/>
     </row>
-    <row r="92" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="14" t="s">
         <v>45</v>
       </c>
@@ -39018,7 +38992,7 @@
       <c r="AI92" s="15"/>
       <c r="AJ92" s="15"/>
     </row>
-    <row r="93" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="14" t="s">
         <v>49</v>
       </c>
@@ -39122,7 +39096,7 @@
       <c r="AI93" s="15"/>
       <c r="AJ93" s="15"/>
     </row>
-    <row r="94" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="16" t="s">
         <v>48</v>
       </c>
@@ -39226,7 +39200,7 @@
       <c r="AI94" s="17"/>
       <c r="AJ94" s="17"/>
     </row>
-    <row r="95" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>298</v>
       </c>
@@ -39234,7 +39208,7 @@
       <c r="AI95" s="29"/>
       <c r="AJ95" s="29"/>
     </row>
-    <row r="96" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="54" t="s">
         <v>285</v>
       </c>
@@ -39341,7 +39315,7 @@
       <c r="AJ96" s="58"/>
       <c r="AK96" s="56"/>
     </row>
-    <row r="97" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="54" t="s">
         <v>286</v>
       </c>
@@ -39448,7 +39422,7 @@
       <c r="AJ97" s="58"/>
       <c r="AK97" s="56"/>
     </row>
-    <row r="98" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="54" t="s">
         <v>470</v>
       </c>
@@ -39553,7 +39527,7 @@
       <c r="AJ98" s="58"/>
       <c r="AK98" s="56"/>
     </row>
-    <row r="99" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="54" t="s">
         <v>287</v>
       </c>
@@ -39660,7 +39634,7 @@
       <c r="AJ99" s="58"/>
       <c r="AK99" s="56"/>
     </row>
-    <row r="100" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="54" t="s">
         <v>51</v>
       </c>
@@ -39767,7 +39741,7 @@
       <c r="AJ100" s="58"/>
       <c r="AK100" s="56"/>
     </row>
-    <row r="101" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="54" t="s">
         <v>52</v>
       </c>
@@ -39874,7 +39848,7 @@
       <c r="AJ101" s="58"/>
       <c r="AK101" s="56"/>
     </row>
-    <row r="102" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="54" t="s">
         <v>53</v>
       </c>
@@ -39981,7 +39955,7 @@
       <c r="AJ102" s="58"/>
       <c r="AK102" s="56"/>
     </row>
-    <row r="103" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="54" t="s">
         <v>288</v>
       </c>
@@ -40088,7 +40062,7 @@
       <c r="AJ103" s="58"/>
       <c r="AK103" s="56"/>
     </row>
-    <row r="104" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="54" t="s">
         <v>289</v>
       </c>
@@ -40195,7 +40169,7 @@
       <c r="AJ104" s="58"/>
       <c r="AK104" s="56"/>
     </row>
-    <row r="105" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="54" t="s">
         <v>290</v>
       </c>
@@ -40302,7 +40276,7 @@
       <c r="AJ105" s="58"/>
       <c r="AK105" s="56"/>
     </row>
-    <row r="106" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="54" t="s">
         <v>94</v>
       </c>
@@ -40407,7 +40381,7 @@
       <c r="AJ106" s="58"/>
       <c r="AK106" s="56"/>
     </row>
-    <row r="107" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="54" t="s">
         <v>291</v>
       </c>
@@ -40512,7 +40486,7 @@
       <c r="AJ107" s="58"/>
       <c r="AK107" s="56"/>
     </row>
-    <row r="108" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="54" t="s">
         <v>292</v>
       </c>
@@ -40617,7 +40591,7 @@
       <c r="AJ108" s="58"/>
       <c r="AK108" s="56"/>
     </row>
-    <row r="109" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="54" t="s">
         <v>293</v>
       </c>
@@ -40722,7 +40696,7 @@
       <c r="AJ109" s="58"/>
       <c r="AK109" s="56"/>
     </row>
-    <row r="110" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="54" t="s">
         <v>294</v>
       </c>
@@ -40827,7 +40801,7 @@
       <c r="AJ110" s="58"/>
       <c r="AK110" s="56"/>
     </row>
-    <row r="111" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="54" t="s">
         <v>54</v>
       </c>
@@ -40932,7 +40906,7 @@
       <c r="AJ111" s="58"/>
       <c r="AK111" s="56"/>
     </row>
-    <row r="112" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="54" t="s">
         <v>295</v>
       </c>
@@ -41037,7 +41011,7 @@
       <c r="AJ112" s="58"/>
       <c r="AK112" s="56"/>
     </row>
-    <row r="113" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="54" t="s">
         <v>55</v>
       </c>
@@ -41142,7 +41116,7 @@
       <c r="AJ113" s="58"/>
       <c r="AK113" s="56"/>
     </row>
-    <row r="114" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="54" t="s">
         <v>56</v>
       </c>
@@ -41247,7 +41221,7 @@
       <c r="AJ114" s="58"/>
       <c r="AK114" s="56"/>
     </row>
-    <row r="115" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="54" t="s">
         <v>296</v>
       </c>
@@ -41352,7 +41326,7 @@
       <c r="AJ115" s="58"/>
       <c r="AK115" s="56"/>
     </row>
-    <row r="116" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="54" t="s">
         <v>297</v>
       </c>
@@ -41457,7 +41431,7 @@
       <c r="AJ116" s="58"/>
       <c r="AK116" s="56"/>
     </row>
-    <row r="117" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="53" t="s">
         <v>57</v>
       </c>
@@ -41562,7 +41536,7 @@
       <c r="AJ117" s="65"/>
       <c r="AK117" s="60"/>
     </row>
-    <row r="118" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="54" t="s">
         <v>58</v>
       </c>
@@ -41667,7 +41641,7 @@
       <c r="AJ118" s="58"/>
       <c r="AK118" s="56"/>
     </row>
-    <row r="119" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="53" t="s">
         <v>59</v>
       </c>
@@ -41772,18 +41746,18 @@
       <c r="AJ119" s="65"/>
       <c r="AK119" s="60"/>
     </row>
-    <row r="120" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI120" s="29"/>
       <c r="AJ120" s="29"/>
     </row>
-    <row r="121" spans="1:37" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="74" t="s">
         <v>283</v>
       </c>
       <c r="AI121" s="38"/>
       <c r="AJ121" s="38"/>
     </row>
-    <row r="122" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="14" t="s">
         <v>284</v>
       </c>
@@ -41919,7 +41893,7 @@
       <c r="AI122" s="100"/>
       <c r="AJ122" s="100"/>
     </row>
-    <row r="123" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="54" t="s">
         <v>285</v>
       </c>
@@ -42059,7 +42033,7 @@
       <c r="AJ123" s="58"/>
       <c r="AK123" s="56"/>
     </row>
-    <row r="124" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="54" t="s">
         <v>286</v>
       </c>
@@ -42199,7 +42173,7 @@
       <c r="AJ124" s="58"/>
       <c r="AK124" s="56"/>
     </row>
-    <row r="125" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="54" t="s">
         <v>287</v>
       </c>
@@ -42339,7 +42313,7 @@
       <c r="AJ125" s="58"/>
       <c r="AK125" s="56"/>
     </row>
-    <row r="126" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="54" t="s">
         <v>51</v>
       </c>
@@ -42479,7 +42453,7 @@
       <c r="AJ126" s="58"/>
       <c r="AK126" s="56"/>
     </row>
-    <row r="127" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="54" t="s">
         <v>52</v>
       </c>
@@ -42619,7 +42593,7 @@
       <c r="AJ127" s="58"/>
       <c r="AK127" s="56"/>
     </row>
-    <row r="128" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="54" t="s">
         <v>53</v>
       </c>
@@ -42759,7 +42733,7 @@
       <c r="AJ128" s="58"/>
       <c r="AK128" s="56"/>
     </row>
-    <row r="129" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="54" t="s">
         <v>288</v>
       </c>
@@ -42899,7 +42873,7 @@
       <c r="AJ129" s="58"/>
       <c r="AK129" s="56"/>
     </row>
-    <row r="130" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="54" t="s">
         <v>289</v>
       </c>
@@ -43039,7 +43013,7 @@
       <c r="AJ130" s="58"/>
       <c r="AK130" s="56"/>
     </row>
-    <row r="131" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="54" t="s">
         <v>290</v>
       </c>
@@ -43179,7 +43153,7 @@
       <c r="AJ131" s="58"/>
       <c r="AK131" s="56"/>
     </row>
-    <row r="132" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="54" t="s">
         <v>94</v>
       </c>
@@ -43316,7 +43290,7 @@
       <c r="AJ132" s="58"/>
       <c r="AK132" s="56"/>
     </row>
-    <row r="133" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="54" t="s">
         <v>291</v>
       </c>
@@ -43453,7 +43427,7 @@
       <c r="AJ133" s="58"/>
       <c r="AK133" s="56"/>
     </row>
-    <row r="134" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="54" t="s">
         <v>292</v>
       </c>
@@ -43590,7 +43564,7 @@
       <c r="AJ134" s="58"/>
       <c r="AK134" s="56"/>
     </row>
-    <row r="135" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="54" t="s">
         <v>293</v>
       </c>
@@ -43727,7 +43701,7 @@
       <c r="AJ135" s="58"/>
       <c r="AK135" s="56"/>
     </row>
-    <row r="136" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="54" t="s">
         <v>294</v>
       </c>
@@ -43864,7 +43838,7 @@
       <c r="AJ136" s="58"/>
       <c r="AK136" s="56"/>
     </row>
-    <row r="137" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="54" t="s">
         <v>54</v>
       </c>
@@ -44001,7 +43975,7 @@
       <c r="AJ137" s="58"/>
       <c r="AK137" s="56"/>
     </row>
-    <row r="138" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="54" t="s">
         <v>295</v>
       </c>
@@ -44138,7 +44112,7 @@
       <c r="AJ138" s="58"/>
       <c r="AK138" s="56"/>
     </row>
-    <row r="139" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="54" t="s">
         <v>55</v>
       </c>
@@ -44275,7 +44249,7 @@
       <c r="AJ139" s="58"/>
       <c r="AK139" s="56"/>
     </row>
-    <row r="140" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="54" t="s">
         <v>56</v>
       </c>
@@ -44412,7 +44386,7 @@
       <c r="AJ140" s="58"/>
       <c r="AK140" s="56"/>
     </row>
-    <row r="141" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="54" t="s">
         <v>104</v>
       </c>
@@ -44549,7 +44523,7 @@
       <c r="AJ141" s="58"/>
       <c r="AK141" s="56"/>
     </row>
-    <row r="142" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="54" t="s">
         <v>296</v>
       </c>
@@ -44686,7 +44660,7 @@
       <c r="AJ142" s="58"/>
       <c r="AK142" s="56"/>
     </row>
-    <row r="143" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="54" t="s">
         <v>297</v>
       </c>
@@ -44823,7 +44797,7 @@
       <c r="AJ143" s="58"/>
       <c r="AK143" s="56"/>
     </row>
-    <row r="144" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="53" t="s">
         <v>57</v>
       </c>
@@ -44960,7 +44934,7 @@
       <c r="AJ144" s="58"/>
       <c r="AK144" s="60"/>
     </row>
-    <row r="145" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="54" t="s">
         <v>58</v>
       </c>
@@ -45097,7 +45071,7 @@
       <c r="AJ145" s="58"/>
       <c r="AK145" s="56"/>
     </row>
-    <row r="146" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="53" t="s">
         <v>59</v>
       </c>
@@ -45234,75 +45208,75 @@
       <c r="AJ146" s="58"/>
       <c r="AK146" s="60"/>
     </row>
-    <row r="147" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI147" s="29"/>
       <c r="AJ147" s="29"/>
     </row>
-    <row r="148" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI148" s="29"/>
       <c r="AJ148" s="29"/>
     </row>
-    <row r="149" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI149" s="29"/>
       <c r="AJ149" s="29"/>
     </row>
-    <row r="150" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI150" s="29"/>
       <c r="AJ150" s="29"/>
     </row>
-    <row r="151" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI151" s="29"/>
       <c r="AJ151" s="29"/>
     </row>
-    <row r="152" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI152" s="29"/>
       <c r="AJ152" s="29"/>
     </row>
-    <row r="153" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI153" s="29"/>
       <c r="AJ153" s="29"/>
     </row>
-    <row r="154" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI154" s="29"/>
       <c r="AJ154" s="29"/>
     </row>
-    <row r="155" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI155" s="29"/>
       <c r="AJ155" s="29"/>
     </row>
-    <row r="156" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI156" s="29"/>
       <c r="AJ156" s="29"/>
     </row>
-    <row r="157" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI157" s="29"/>
       <c r="AJ157" s="29"/>
     </row>
-    <row r="158" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI158" s="29"/>
       <c r="AJ158" s="29"/>
     </row>
-    <row r="159" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI159" s="29"/>
       <c r="AJ159" s="29"/>
     </row>
-    <row r="160" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI160" s="29"/>
       <c r="AJ160" s="29"/>
     </row>
-    <row r="161" spans="35:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="35:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI161" s="29"/>
       <c r="AJ161" s="29"/>
     </row>
-    <row r="162" spans="35:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="35:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI162" s="29"/>
       <c r="AJ162" s="29"/>
     </row>
-    <row r="163" spans="35:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="35:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI163" s="29"/>
       <c r="AJ163" s="29"/>
     </row>
-    <row r="164" spans="35:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="35:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AI164" s="29"/>
       <c r="AJ164" s="29"/>
     </row>
@@ -45313,23 +45287,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.86328125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -45337,7 +45311,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -45346,7 +45320,7 @@
         <v>35100000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -45355,7 +45329,7 @@
         <v>201074005000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -45364,7 +45338,7 @@
         <v>210000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -45373,7 +45347,7 @@
         <v>424600000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -45382,7 +45356,7 @@
         <v>315900000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -45391,7 +45365,7 @@
         <v>219369905167615.94</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -45400,7 +45374,7 @@
         <v>256600000000000.03</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
@@ -45409,12 +45383,12 @@
         <v>1568430094832384</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -45422,7 +45396,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -45430,7 +45404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -45438,7 +45412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -45446,7 +45420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -45454,7 +45428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -45462,7 +45436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -45470,7 +45444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -45478,7 +45452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -45486,528 +45460,528 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
       <c r="B25" s="33"/>
     </row>
-    <row r="26" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B28" s="36"/>
     </row>
-    <row r="29" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
     </row>
-    <row r="31" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B32" s="37"/>
     </row>
-    <row r="33" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B33" s="37"/>
     </row>
-    <row r="34" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B34" s="37"/>
     </row>
-    <row r="35" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="38"/>
       <c r="B36" s="39"/>
     </row>
-    <row r="37" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B37" s="37"/>
     </row>
-    <row r="38" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="38"/>
       <c r="B38" s="37"/>
     </row>
-    <row r="39" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B39" s="37"/>
     </row>
-    <row r="40" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="38"/>
       <c r="B40" s="37"/>
     </row>
-    <row r="41" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B41" s="37"/>
     </row>
-    <row r="42" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="38"/>
     </row>
-    <row r="44" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
     </row>
-    <row r="45" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
     </row>
-    <row r="46" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
     </row>
-    <row r="50" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
     </row>
-    <row r="52" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
     </row>
-    <row r="54" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
     </row>
-    <row r="57" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="38"/>
     </row>
-    <row r="58" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="14"/>
       <c r="B59" s="15"/>
     </row>
-    <row r="60" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="34"/>
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14"/>
       <c r="B62" s="15"/>
     </row>
-    <row r="63" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="14"/>
       <c r="B63" s="15"/>
     </row>
-    <row r="64" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="14"/>
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
     </row>
-    <row r="66" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="14"/>
       <c r="B66" s="15"/>
     </row>
-    <row r="67" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="14"/>
       <c r="B67" s="15"/>
     </row>
-    <row r="68" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="14"/>
       <c r="B68" s="15"/>
     </row>
-    <row r="69" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="14"/>
       <c r="B69" s="15"/>
     </row>
-    <row r="70" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="14"/>
       <c r="B70" s="15"/>
     </row>
-    <row r="71" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="14"/>
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
     </row>
-    <row r="73" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="28"/>
     </row>
-    <row r="74" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
     </row>
-    <row r="75" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
     </row>
-    <row r="76" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="14"/>
       <c r="B76" s="15"/>
     </row>
-    <row r="77" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
     </row>
-    <row r="78" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="14"/>
       <c r="B78" s="15"/>
     </row>
-    <row r="79" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
     </row>
-    <row r="80" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
     </row>
-    <row r="81" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="14"/>
       <c r="B81" s="15"/>
     </row>
-    <row r="82" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
     </row>
-    <row r="83" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
     </row>
-    <row r="84" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
     </row>
-    <row r="85" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
     </row>
-    <row r="86" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="16"/>
       <c r="B86" s="17"/>
     </row>
-    <row r="87" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="28"/>
     </row>
-    <row r="88" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="28"/>
     </row>
-    <row r="89" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
     </row>
-    <row r="90" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
     </row>
-    <row r="91" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
     </row>
-    <row r="92" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="14"/>
       <c r="B92" s="15"/>
     </row>
-    <row r="93" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
     </row>
-    <row r="94" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="14"/>
       <c r="B94" s="15"/>
     </row>
-    <row r="95" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="14"/>
       <c r="B95" s="15"/>
     </row>
-    <row r="96" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="14"/>
       <c r="B96" s="15"/>
     </row>
-    <row r="97" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="14"/>
       <c r="B97" s="15"/>
     </row>
-    <row r="98" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
     </row>
-    <row r="99" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
     </row>
-    <row r="100" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="30"/>
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="34"/>
       <c r="B101" s="15"/>
     </row>
-    <row r="102" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
     </row>
-    <row r="103" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
     </row>
-    <row r="104" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="14"/>
       <c r="B104" s="15"/>
     </row>
-    <row r="105" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="28"/>
     </row>
-    <row r="106" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="14"/>
       <c r="B106" s="15"/>
     </row>
-    <row r="107" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="14"/>
       <c r="B107" s="15"/>
     </row>
-    <row r="108" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="14"/>
       <c r="B108" s="15"/>
     </row>
-    <row r="109" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="14"/>
       <c r="B109" s="15"/>
     </row>
-    <row r="110" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
     </row>
-    <row r="111" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
     </row>
-    <row r="112" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="14"/>
       <c r="B112" s="15"/>
     </row>
-    <row r="113" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="14"/>
       <c r="B113" s="15"/>
     </row>
-    <row r="114" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="14"/>
       <c r="B114" s="15"/>
     </row>
-    <row r="115" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="14"/>
       <c r="B115" s="15"/>
     </row>
-    <row r="116" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="14"/>
       <c r="B116" s="15"/>
     </row>
-    <row r="117" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="16"/>
       <c r="B117" s="17"/>
     </row>
-    <row r="118" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A118" s="38"/>
     </row>
-    <row r="119" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="11"/>
       <c r="B119" s="40"/>
     </row>
-    <row r="120" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="11"/>
       <c r="B120" s="40"/>
     </row>
-    <row r="121" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="11"/>
       <c r="B121" s="41"/>
     </row>
-    <row r="122" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="11"/>
       <c r="B122" s="42"/>
     </row>
-    <row r="123" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="38"/>
     </row>
-    <row r="124" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A124" s="14"/>
       <c r="B124" s="15"/>
     </row>
-    <row r="125" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A125" s="14"/>
       <c r="B125" s="15"/>
     </row>
-    <row r="126" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A126" s="14"/>
       <c r="B126" s="15"/>
     </row>
-    <row r="127" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A127" s="14"/>
       <c r="B127" s="15"/>
     </row>
-    <row r="128" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A128" s="14"/>
       <c r="B128" s="15"/>
     </row>
-    <row r="129" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A129" s="14"/>
       <c r="B129" s="15"/>
     </row>
-    <row r="130" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A130" s="14"/>
       <c r="B130" s="15"/>
     </row>
-    <row r="131" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A131" s="14"/>
       <c r="B131" s="15"/>
     </row>
-    <row r="132" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A132" s="14"/>
       <c r="B132" s="15"/>
     </row>
-    <row r="133" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A133" s="14"/>
       <c r="B133" s="15"/>
     </row>
-    <row r="134" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A134" s="16"/>
       <c r="B134" s="17"/>
     </row>
-    <row r="135" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A135" s="38"/>
     </row>
-    <row r="136" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A136" s="34"/>
       <c r="B136" s="18"/>
     </row>
-    <row r="137" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A137" s="14"/>
       <c r="B137" s="18"/>
     </row>
-    <row r="138" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="14"/>
       <c r="B138" s="18"/>
     </row>
-    <row r="139" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="14"/>
       <c r="B139" s="18"/>
     </row>
-    <row r="140" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="14"/>
       <c r="B140" s="18"/>
     </row>
-    <row r="141" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="14"/>
       <c r="B141" s="18"/>
     </row>
-    <row r="142" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="14"/>
       <c r="B142" s="18"/>
     </row>
-    <row r="143" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="14"/>
       <c r="B143" s="18"/>
     </row>
-    <row r="144" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="14"/>
       <c r="B144" s="18"/>
     </row>
-    <row r="145" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="14"/>
       <c r="B145" s="18"/>
     </row>
-    <row r="146" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="14"/>
       <c r="B146" s="18"/>
     </row>
-    <row r="147" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="14"/>
       <c r="B147" s="18"/>
     </row>
-    <row r="148" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="14"/>
       <c r="B148" s="18"/>
     </row>
-    <row r="149" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="14"/>
       <c r="B149" s="18"/>
     </row>
-    <row r="150" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A150" s="14"/>
       <c r="B150" s="18"/>
     </row>
-    <row r="151" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="14"/>
       <c r="B151" s="18"/>
     </row>
-    <row r="152" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="14"/>
       <c r="B152" s="18"/>
     </row>
-    <row r="153" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A153" s="14"/>
       <c r="B153" s="18"/>
     </row>
-    <row r="154" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A154" s="14"/>
       <c r="B154" s="18"/>
     </row>
-    <row r="155" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A155" s="14"/>
       <c r="B155" s="18"/>
     </row>
-    <row r="156" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="16"/>
       <c r="B156" s="19"/>
     </row>
-    <row r="157" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A157" s="14"/>
       <c r="B157" s="18"/>
     </row>
-    <row r="158" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A158" s="16"/>
       <c r="B158" s="19"/>
     </row>
-    <row r="159" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="160" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B160" s="43"/>
     </row>
-    <row r="161" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B161" s="43"/>
     </row>
-    <row r="162" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="163" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="164" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="165" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="166" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="167" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
     </row>
@@ -46018,25 +45992,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="6" customWidth="1"/>
-    <col min="3" max="35" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" style="6" customWidth="1"/>
+    <col min="3" max="35" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -46077,7 +46051,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -46119,7 +46093,7 @@
       <c r="AH3" s="24"/>
       <c r="AI3" s="24"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -46161,7 +46135,7 @@
       <c r="AH4" s="24"/>
       <c r="AI4" s="24"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -46203,7 +46177,7 @@
       <c r="AH5" s="24"/>
       <c r="AI5" s="24"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -46245,7 +46219,7 @@
       <c r="AH6" s="24"/>
       <c r="AI6" s="24"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -46287,7 +46261,7 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -46328,7 +46302,7 @@
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -46369,7 +46343,7 @@
       <c r="AH9" s="24"/>
       <c r="AI9" s="24"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
@@ -46411,17 +46385,17 @@
       <c r="AH10" s="24"/>
       <c r="AI10" s="24"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>302</v>
       </c>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -46430,7 +46404,7 @@
       </c>
       <c r="C13" s="27"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -46439,7 +46413,7 @@
         <v>8300000000000.001</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -46447,7 +46421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -46456,7 +46430,7 @@
         <v>570600000000000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -46464,7 +46438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -46472,7 +46446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -46480,7 +46454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -46488,7 +46462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -46503,25 +46477,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="35" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -46562,7 +46536,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -46604,7 +46578,7 @@
       <c r="AH3" s="24"/>
       <c r="AI3" s="24"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -46646,7 +46620,7 @@
       <c r="AH4" s="24"/>
       <c r="AI4" s="24"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -46688,7 +46662,7 @@
       <c r="AH5" s="24"/>
       <c r="AI5" s="24"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -46730,7 +46704,7 @@
       <c r="AH6" s="24"/>
       <c r="AI6" s="24"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -46772,7 +46746,7 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -46813,7 +46787,7 @@
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -46855,7 +46829,7 @@
       <c r="AH9" s="24"/>
       <c r="AI9" s="24"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
@@ -46897,12 +46871,12 @@
       <c r="AH10" s="24"/>
       <c r="AI10" s="24"/>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -46910,7 +46884,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -46918,7 +46892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -46927,7 +46901,7 @@
         <v>215000000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -46935,7 +46909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -46944,7 +46918,7 @@
         <v>844600000000000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -46952,7 +46926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -46960,7 +46934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -46968,7 +46942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -46983,24 +46957,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
-    <col min="2" max="35" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
+    <col min="2" max="35" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -47041,7 +47015,7 @@
       <c r="AH2" s="25"/>
       <c r="AI2" s="25"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -47082,7 +47056,7 @@
       <c r="AH3" s="24"/>
       <c r="AI3" s="24"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -47124,7 +47098,7 @@
       <c r="AH4" s="24"/>
       <c r="AI4" s="24"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -47165,7 +47139,7 @@
       <c r="AH5" s="24"/>
       <c r="AI5" s="24"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -47206,7 +47180,7 @@
       <c r="AH6" s="24"/>
       <c r="AI6" s="24"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -47247,7 +47221,7 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -47288,7 +47262,7 @@
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -47329,7 +47303,7 @@
       <c r="AH9" s="24"/>
       <c r="AI9" s="24"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
@@ -47371,12 +47345,12 @@
       <c r="AH10" s="31"/>
       <c r="AI10" s="31"/>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -47384,7 +47358,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -47392,7 +47366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -47400,7 +47374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -47408,7 +47382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -47416,7 +47390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -47424,7 +47398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -47432,7 +47406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -47440,7 +47414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -47448,7 +47422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="24"/>
     </row>
   </sheetData>
